--- a/VerveStacks_USA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_USA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_USA_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9875899E-6147-45DF-9799-8F8F89194C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BDAF061-4228-4187-9052-8F5E4E7A9DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{D7C101EE-329E-47B4-8933-C7584CB13DEF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{9E230298-E0D5-4563-93B0-43345A57E893}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -942,7 +942,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5EBE77D-D3F4-5284-00BE-B4EB80E3008D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAD9A76A-9C9B-420B-A20E-308DBB2D5894}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1293,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D66366F-21EE-45D7-A115-A6E6E5772C20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012A5A61-24CB-4736-927E-9505536F0351}">
   <dimension ref="A1:L127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
